--- a/documentos/orcamento.xlsx
+++ b/documentos/orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\EXEMPLO\3SIT-ExemploGIT-2024\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A70F92-FE53-4E71-B55A-C8EA9AD0E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24657E-F6E8-421E-AF98-15F8E23F17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>item</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>assistencias</t>
+  </si>
+  <si>
+    <t>roger guedes</t>
   </si>
 </sst>
 </file>
@@ -93,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +427,7 @@
         <v>466</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
         <v>1398</v>
       </c>
     </row>
@@ -455,6 +459,21 @@
       <c r="D5">
         <f t="shared" si="0"/>
         <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-50000</v>
       </c>
     </row>
   </sheetData>
